--- a/BalanceSheet/AME_bal.xlsx
+++ b/BalanceSheet/AME_bal.xlsx
@@ -2786,19 +2786,19 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
-        <v>6371000.0</v>
+        <v>521000000.0</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>-1556000.0</v>
+        <v>542000000.0</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>1066000.0</v>
+        <v>556000000.0</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>-4042000.0</v>
+        <v>554000000.0</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>5983000.0</v>
+        <v>524000000.0</v>
       </c>
       <c r="G21" s="0" t="n">
         <v>549178000.0</v>
